--- a/ivan is a tomato sause/measures_dimensions.xlsx
+++ b/ivan is a tomato sause/measures_dimensions.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="5660" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Measures</t>
   </si>
@@ -103,6 +104,75 @@
   </si>
   <si>
     <t>Plots:</t>
+  </si>
+  <si>
+    <t>Freq Band</t>
+  </si>
+  <si>
+    <t>Average Spend Bands</t>
+  </si>
+  <si>
+    <t>High Value</t>
+  </si>
+  <si>
+    <t>Mid Value</t>
+  </si>
+  <si>
+    <t>Low Value</t>
+  </si>
+  <si>
+    <t>&lt;=$10</t>
+  </si>
+  <si>
+    <t>$11~$50</t>
+  </si>
+  <si>
+    <t>$51~$100</t>
+  </si>
+  <si>
+    <t>$101~$500</t>
+  </si>
+  <si>
+    <t>$501~$2000</t>
+  </si>
+  <si>
+    <t>&gt;$2000</t>
+  </si>
+  <si>
+    <t>6. Non gamblers</t>
+  </si>
+  <si>
+    <t>7. Luck person</t>
+  </si>
+  <si>
+    <t>4. Casual entertainer</t>
+  </si>
+  <si>
+    <t>5. Entertainer</t>
+  </si>
+  <si>
+    <t>3. Opportunism</t>
+  </si>
+  <si>
+    <t>2. Strategic gamblers</t>
+  </si>
+  <si>
+    <t>1. Professional gamblers</t>
+  </si>
+  <si>
+    <t>&lt;=2 bets</t>
+  </si>
+  <si>
+    <t>3~7 bets</t>
+  </si>
+  <si>
+    <t>8~27 bets</t>
+  </si>
+  <si>
+    <t>28~50 bets</t>
+  </si>
+  <si>
+    <t>&gt;50 bets</t>
   </si>
 </sst>
 </file>
@@ -142,15 +212,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -158,6 +246,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -198,9 +468,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -570,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -713,4 +1061,162 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" ht="16" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="2:11" ht="16" thickBot="1">
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" ht="16" thickBot="1">
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" ht="16" thickBot="1">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" ht="16" thickBot="1">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="J8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="2:11" ht="16" thickBot="1">
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/ivan is a tomato sause/measures_dimensions.xlsx
+++ b/ivan is a tomato sause/measures_dimensions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5500" yWindow="4900" windowWidth="33600" windowHeight="19380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Measures</t>
   </si>
@@ -121,58 +121,106 @@
     <t>Low Value</t>
   </si>
   <si>
-    <t>&lt;=$10</t>
-  </si>
-  <si>
-    <t>$11~$50</t>
-  </si>
-  <si>
-    <t>$51~$100</t>
-  </si>
-  <si>
-    <t>$101~$500</t>
-  </si>
-  <si>
-    <t>$501~$2000</t>
-  </si>
-  <si>
-    <t>&gt;$2000</t>
-  </si>
-  <si>
-    <t>6. Non gamblers</t>
-  </si>
-  <si>
-    <t>7. Luck person</t>
-  </si>
-  <si>
-    <t>4. Casual entertainer</t>
-  </si>
-  <si>
-    <t>5. Entertainer</t>
-  </si>
-  <si>
-    <t>3. Opportunism</t>
-  </si>
-  <si>
-    <t>2. Strategic gamblers</t>
-  </si>
-  <si>
-    <t>1. Professional gamblers</t>
-  </si>
-  <si>
     <t>&lt;=2 bets</t>
   </si>
   <si>
-    <t>3~7 bets</t>
-  </si>
-  <si>
-    <t>8~27 bets</t>
-  </si>
-  <si>
-    <t>28~50 bets</t>
-  </si>
-  <si>
-    <t>&gt;50 bets</t>
+    <t>From strategic perspective</t>
+  </si>
+  <si>
+    <t>1. Business would like to push customers from segment 6 and 7 to 4 and 5 then 1,2 and 3</t>
+  </si>
+  <si>
+    <t>2. Motion chart can track the transition of customers between different segments across time</t>
+  </si>
+  <si>
+    <t>3. We can see the variance of customers in terms of their segments during pre-event, during-event and post-event period</t>
+  </si>
+  <si>
+    <t>4. Then we are capable to develop trigger based promotion to transit lower valued customers to higher values segments</t>
+  </si>
+  <si>
+    <t>&gt;$1000</t>
+  </si>
+  <si>
+    <t>&lt;=$20</t>
+  </si>
+  <si>
+    <t>$21 to $45</t>
+  </si>
+  <si>
+    <t>$46 to $100</t>
+  </si>
+  <si>
+    <t>$101 to $290</t>
+  </si>
+  <si>
+    <t>$291 to $1000</t>
+  </si>
+  <si>
+    <t>3~9 bets</t>
+  </si>
+  <si>
+    <t>10~50 bets</t>
+  </si>
+  <si>
+    <t>51~100 bets</t>
+  </si>
+  <si>
+    <t>101 to 500 bets</t>
+  </si>
+  <si>
+    <t>&gt; 500 bets</t>
+  </si>
+  <si>
+    <t>1. Large gambling group / business</t>
+  </si>
+  <si>
+    <t>2. Small casual groups</t>
+  </si>
+  <si>
+    <t>Key Account</t>
+  </si>
+  <si>
+    <t>3. Professional gambler</t>
+  </si>
+  <si>
+    <t>4. Strategy driven gambler</t>
+  </si>
+  <si>
+    <t>5. Opportunism</t>
+  </si>
+  <si>
+    <t>6. Frequent gambler</t>
+  </si>
+  <si>
+    <t>7. Casual entertainer</t>
+  </si>
+  <si>
+    <t>8. Event focused player</t>
+  </si>
+  <si>
+    <t>9. Try person</t>
+  </si>
+  <si>
+    <t>1. Large Gambling Group or Business</t>
+  </si>
+  <si>
+    <t>2. Small Casual Group</t>
+  </si>
+  <si>
+    <t>4. Strategy Driven Gambler</t>
+  </si>
+  <si>
+    <t>6. Frequent Gambler</t>
+  </si>
+  <si>
+    <t>7. Casual Entertainer</t>
+  </si>
+  <si>
+    <t>8. Event Focused Player</t>
+  </si>
+  <si>
+    <t>9. Try Person</t>
   </si>
 </sst>
 </file>
@@ -212,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -429,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,16 +521,100 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,71 +624,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -569,6 +681,24 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -587,6 +717,24 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,142 +1213,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="P2" sqref="P2:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
+      <c r="C1">
+        <v>5568</v>
+      </c>
+      <c r="D1">
+        <v>2996</v>
+      </c>
+      <c r="E1">
+        <v>3386</v>
+      </c>
+      <c r="F1">
+        <v>3781</v>
+      </c>
+      <c r="G1">
+        <v>2990</v>
+      </c>
+      <c r="H1">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="C2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="20" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="J2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="M2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16" thickBot="1">
+      <c r="B3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16" thickBot="1">
+      <c r="A4">
+        <v>5607</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>4928</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="27"/>
+      <c r="J5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="2:11" ht="16" thickBot="1">
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="K5" s="6"/>
+      <c r="M5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1">
+      <c r="A6">
+        <v>5242</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="28"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>1664</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16" thickBot="1">
+      <c r="A8">
+        <v>2832</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1">
+      <c r="A9">
+        <v>701</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="2:11" ht="16" thickBot="1">
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1">
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:11" ht="16" thickBot="1">
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="J8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="2:11" ht="16" thickBot="1">
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="M5:N6"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="J5:K6"/>
-    <mergeCell ref="J8:K9"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C5:E6"/>
     <mergeCell ref="F5:G6"/>
@@ -1210,6 +1479,8 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/ivan is a tomato sause/measures_dimensions.xlsx
+++ b/ivan is a tomato sause/measures_dimensions.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4900" windowWidth="33600" windowHeight="19380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25200" yWindow="5420" windowWidth="33600" windowHeight="19380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>Measures</t>
   </si>
@@ -221,13 +222,53 @@
   </si>
   <si>
     <t>9. Try Person</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Amounts</t>
+  </si>
+  <si>
+    <t>RFM Segments</t>
+  </si>
+  <si>
+    <t># Account</t>
+  </si>
+  <si>
+    <t>Transaction amounts</t>
+  </si>
+  <si>
+    <t>51 to 100 bets</t>
+  </si>
+  <si>
+    <t>10 to 50 bets</t>
+  </si>
+  <si>
+    <t>3 to 9 bets</t>
+  </si>
+  <si>
+    <t>&lt;= 2 bets</t>
+  </si>
+  <si>
+    <t>Desired Campaign Strategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,8 +300,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +340,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -483,84 +544,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -657,12 +755,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="37" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -681,24 +810,42 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -717,29 +864,480 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="37" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># Account</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$P$15:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1. Large Gambling Group or Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Small Casual Group</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Professional gambler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. Strategy Driven Gambler</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Opportunism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. Frequent Gambler</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. Casual Entertainer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. Event Focused Player</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. Try Person</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$15:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0240774291980547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00934490321350243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.136311623915324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0790025746161915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04252884523696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.157909793077143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.283493849527987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0618861447506436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.205444836464194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2126999960"/>
+        <c:axId val="2126974648"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transactions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$P$15:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1. Large Gambling Group or Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Small Casual Group</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Professional gambler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. Strategy Driven Gambler</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Opportunism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. Frequent Gambler</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. Casual Entertainer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. Event Focused Player</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. Try Person</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$15:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.513562368559985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0770354175725223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.227605357193789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0920424985258927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0421498624263601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0205778383912819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0243683166772313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000845756288311508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00181258436462632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transaction amounts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$P$15:$P$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1. Large Gambling Group or Business</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. Small Casual Group</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. Professional gambler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. Strategy Driven Gambler</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. Opportunism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. Frequent Gambler</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. Casual Entertainer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. Event Focused Player</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. Try Person</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$15:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.954067732811621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000993976896900801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0413083258250457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00209948249786384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000250013012194118</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000972134582420621</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000220988712438251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7881530985778E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.94641305301388E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2128688056"/>
+        <c:axId val="2127449096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2126999960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126974648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126974648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126999960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2127449096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2128688056"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2128688056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127449096"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1229,9 +1827,13 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:22" ht="16" thickBot="1">
       <c r="C1">
         <v>5568</v>
       </c>
@@ -1250,8 +1852,29 @@
       <c r="H1">
         <v>2253</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="C2" s="37" t="s">
         <v>29</v>
       </c>
@@ -1271,8 +1894,29 @@
       <c r="P2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1">
+      <c r="Q2">
+        <v>505</v>
+      </c>
+      <c r="R2">
+        <v>1764589</v>
+      </c>
+      <c r="S2" s="38">
+        <v>47581270000</v>
+      </c>
+      <c r="T2" s="39">
+        <f>Q2/SUM(Q$2:Q$10)</f>
+        <v>2.4077429198054733E-2</v>
+      </c>
+      <c r="U2" s="39">
+        <f t="shared" ref="U2:V2" si="0">R2/SUM(R$2:R$10)</f>
+        <v>0.51356236855998494</v>
+      </c>
+      <c r="V2" s="39">
+        <f t="shared" si="0"/>
+        <v>0.95406773281162083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16" thickBot="1">
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
@@ -1301,8 +1945,29 @@
       <c r="P3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" thickBot="1">
+      <c r="Q3">
+        <v>196</v>
+      </c>
+      <c r="R3">
+        <v>264692</v>
+      </c>
+      <c r="S3" s="38">
+        <v>49571620</v>
+      </c>
+      <c r="T3" s="39">
+        <f t="shared" ref="T3:T10" si="1">Q3/SUM(Q$2:Q$10)</f>
+        <v>9.3449032135024309E-3</v>
+      </c>
+      <c r="U3" s="39">
+        <f t="shared" ref="U3:U10" si="2">R3/SUM(R$2:R$10)</f>
+        <v>7.7035417572522288E-2</v>
+      </c>
+      <c r="V3" s="39">
+        <f t="shared" ref="V3:V10" si="3">S3/SUM(S$2:S$10)</f>
+        <v>9.9397689690080139E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="16" thickBot="1">
       <c r="A4">
         <v>5607</v>
       </c>
@@ -1322,8 +1987,29 @@
       <c r="P4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>2859</v>
+      </c>
+      <c r="R4">
+        <v>782047</v>
+      </c>
+      <c r="S4" s="38">
+        <v>2060129000</v>
+      </c>
+      <c r="T4" s="39">
+        <f t="shared" si="1"/>
+        <v>0.13631162391532373</v>
+      </c>
+      <c r="U4" s="39">
+        <f t="shared" si="2"/>
+        <v>0.22760535719378877</v>
+      </c>
+      <c r="V4" s="39">
+        <f t="shared" si="3"/>
+        <v>4.1308325825045684E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4928</v>
       </c>
@@ -1351,8 +2037,29 @@
       <c r="P5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1">
+      <c r="Q5">
+        <v>1657</v>
+      </c>
+      <c r="R5">
+        <v>316256</v>
+      </c>
+      <c r="S5" s="38">
+        <v>104705400</v>
+      </c>
+      <c r="T5" s="39">
+        <f t="shared" si="1"/>
+        <v>7.9002574616191479E-2</v>
+      </c>
+      <c r="U5" s="39">
+        <f t="shared" si="2"/>
+        <v>9.2042498525892774E-2</v>
+      </c>
+      <c r="V5" s="39">
+        <f t="shared" si="3"/>
+        <v>2.0994824978638419E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16" thickBot="1">
       <c r="A6">
         <v>5242</v>
       </c>
@@ -1372,8 +2079,29 @@
       <c r="P6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>892</v>
+      </c>
+      <c r="R6">
+        <v>144826</v>
+      </c>
+      <c r="S6" s="38">
+        <v>12468650</v>
+      </c>
+      <c r="T6" s="39">
+        <f t="shared" si="1"/>
+        <v>4.2528845236960044E-2</v>
+      </c>
+      <c r="U6" s="39">
+        <f t="shared" si="2"/>
+        <v>4.2149862426360124E-2</v>
+      </c>
+      <c r="V6" s="39">
+        <f t="shared" si="3"/>
+        <v>2.5001301219411789E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>1664</v>
       </c>
@@ -1395,8 +2123,29 @@
       <c r="P7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="16" thickBot="1">
+      <c r="Q7">
+        <v>3312</v>
+      </c>
+      <c r="R7">
+        <v>70705</v>
+      </c>
+      <c r="S7" s="38">
+        <v>48482300</v>
+      </c>
+      <c r="T7" s="39">
+        <f t="shared" si="1"/>
+        <v>0.15790979307714312</v>
+      </c>
+      <c r="U7" s="39">
+        <f t="shared" si="2"/>
+        <v>2.05778383912819E-2</v>
+      </c>
+      <c r="V7" s="39">
+        <f t="shared" si="3"/>
+        <v>9.7213458242062143E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16" thickBot="1">
       <c r="A8">
         <v>2832</v>
       </c>
@@ -1412,8 +2161,29 @@
       <c r="P8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+      <c r="Q8">
+        <v>5946</v>
+      </c>
+      <c r="R8">
+        <v>83729</v>
+      </c>
+      <c r="S8" s="38">
+        <v>11021150</v>
+      </c>
+      <c r="T8" s="39">
+        <f t="shared" si="1"/>
+        <v>0.28349384952798701</v>
+      </c>
+      <c r="U8" s="39">
+        <f t="shared" si="2"/>
+        <v>2.4368316677231345E-2</v>
+      </c>
+      <c r="V8" s="39">
+        <f t="shared" si="3"/>
+        <v>2.2098871243825133E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16" thickBot="1">
       <c r="A9">
         <v>701</v>
       </c>
@@ -1433,35 +2203,266 @@
       <c r="P9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>1298</v>
+      </c>
+      <c r="R9">
+        <v>2906</v>
+      </c>
+      <c r="S9" s="38">
+        <v>3385388</v>
+      </c>
+      <c r="T9" s="39">
+        <f t="shared" si="1"/>
+        <v>6.1886144750643655E-2</v>
+      </c>
+      <c r="U9" s="39">
+        <f t="shared" si="2"/>
+        <v>8.4575628831150837E-4</v>
+      </c>
+      <c r="V9" s="39">
+        <f t="shared" si="3"/>
+        <v>6.7881530985777966E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="P10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>4309</v>
+      </c>
+      <c r="R10">
+        <v>6228</v>
+      </c>
+      <c r="S10" s="38">
+        <v>970715.2</v>
+      </c>
+      <c r="T10" s="39">
+        <f t="shared" si="1"/>
+        <v>0.20544483646419376</v>
+      </c>
+      <c r="U10" s="39">
+        <f t="shared" si="2"/>
+        <v>1.812584364626316E-3</v>
+      </c>
+      <c r="V10" s="39">
+        <f t="shared" si="3"/>
+        <v>1.9464130530138834E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="B13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" t="s">
         <v>38</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="41">
+        <v>2.4077429198054733E-2</v>
+      </c>
+      <c r="R15" s="41">
+        <v>0.51356236855998494</v>
+      </c>
+      <c r="S15" s="41">
+        <v>0.95406773281162105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="P16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="41">
+        <v>9.3449032135024309E-3</v>
+      </c>
+      <c r="R16" s="41">
+        <v>7.7035417572522288E-2</v>
+      </c>
+      <c r="S16" s="41">
+        <v>9.9397689690080139E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="16:19">
+      <c r="P17" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>0.13631162391532373</v>
+      </c>
+      <c r="R17" s="41">
+        <v>0.22760535719378877</v>
+      </c>
+      <c r="S17" s="41">
+        <v>4.1308325825045684E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="16:19">
+      <c r="P18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="41">
+        <v>7.9002574616191479E-2</v>
+      </c>
+      <c r="R18" s="41">
+        <v>9.2042498525892774E-2</v>
+      </c>
+      <c r="S18" s="41">
+        <v>2.0994824978638419E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19">
+      <c r="P19" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="41">
+        <v>4.2528845236960044E-2</v>
+      </c>
+      <c r="R19" s="41">
+        <v>4.2149862426360124E-2</v>
+      </c>
+      <c r="S19" s="41">
+        <v>2.5001301219411789E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19">
+      <c r="P20" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="41">
+        <v>0.15790979307714312</v>
+      </c>
+      <c r="R20" s="41">
+        <v>2.05778383912819E-2</v>
+      </c>
+      <c r="S20" s="41">
+        <v>9.7213458242062143E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19">
+      <c r="P21" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>0.28349384952798701</v>
+      </c>
+      <c r="R21" s="41">
+        <v>2.4368316677231345E-2</v>
+      </c>
+      <c r="S21" s="41">
+        <v>2.2098871243825133E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19">
+      <c r="P22" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="41">
+        <v>6.1886144750643655E-2</v>
+      </c>
+      <c r="R22" s="41">
+        <v>8.4575628831150837E-4</v>
+      </c>
+      <c r="S22" s="41">
+        <v>6.7881530985777966E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19">
+      <c r="P23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>0.20544483646419376</v>
+      </c>
+      <c r="R23" s="41">
+        <v>1.812584364626316E-3</v>
+      </c>
+      <c r="S23" s="41">
+        <v>1.9464130530138834E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="16:19">
+      <c r="P27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="16:19">
+      <c r="P28" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="16:19">
+      <c r="P29" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="16:19">
+      <c r="P30" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="16:19">
+      <c r="P31" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="16:19">
+      <c r="P32" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16">
+      <c r="P33" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16">
+      <c r="P34" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16">
+      <c r="P35" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="16:16">
+      <c r="P36" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1484,6 +2485,213 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="14.1640625" style="42"/>
+    <col min="10" max="11" width="9.5" style="42" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="42" customWidth="1"/>
+    <col min="13" max="14" width="9.5" style="42" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="42" customWidth="1"/>
+    <col min="16" max="17" width="9.5" style="42" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" style="42" customWidth="1"/>
+    <col min="19" max="20" width="9.5" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="14.1640625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="23" customHeight="1">
+      <c r="C2" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="2:20" ht="23" customHeight="1" thickBot="1">
+      <c r="B3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="23" customHeight="1" thickBot="1">
+      <c r="B4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="2:20" ht="23" customHeight="1">
+      <c r="B5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="2:20" ht="23" customHeight="1" thickBot="1">
+      <c r="B6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:20" ht="23" customHeight="1">
+      <c r="B7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:20" ht="23" customHeight="1" thickBot="1">
+      <c r="B8" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:20" ht="23" customHeight="1" thickBot="1">
+      <c r="B9" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="13" spans="2:20" ht="23" customHeight="1" thickBot="1"/>
+    <row r="14" spans="2:20" ht="15">
+      <c r="J14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14"/>
+      <c r="M14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="P14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14"/>
+      <c r="S14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="2:20" ht="16" thickBot="1">
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+    </row>
+    <row r="16" spans="2:20" ht="23" customHeight="1">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
